--- a/APM files/129011099/Import Results/129011099 IMPORT 1 EID creation_result.xlsx
+++ b/APM files/129011099/Import Results/129011099 IMPORT 1 EID creation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\129011099\Import Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539DAAF1-8249-4959-A06B-EAFE339F9A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB1B9C9-CCCA-4EF7-8AD1-38BEE51D5DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="3945" windowWidth="23190" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="5145" windowWidth="23175" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
     <col min="17" max="17" width="9.42578125" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" customWidth="1"/>
     <col min="19" max="19" width="19.85546875" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" customWidth="1"/>
     <col min="22" max="22" width="12.85546875" customWidth="1"/>
     <col min="23" max="23" width="17.5703125" customWidth="1"/>
